--- a/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A72D8-D6E6-409E-8826-B627D1075705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4ED07-4097-4092-8088-8E4EBDC4AA08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="3390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>Use-case diagram</t>
+  </si>
+  <si>
+    <t>Furps+</t>
+  </si>
+  <si>
+    <t>review af MockUp</t>
+  </si>
+  <si>
+    <t>Risikoanalyse</t>
+  </si>
+  <si>
+    <t>Review af Metrikker</t>
+  </si>
+  <si>
+    <t>Fællesgennemgang af projektplan</t>
   </si>
 </sst>
 </file>
@@ -751,7 +766,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,73 +891,118 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43963</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.4375</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>0.19444444444444436</v>
+        <v>0.25694444444444436</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43963</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.19444444444444436</v>
+        <v>0.27777777777777768</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43963</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12500000000000006</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.19444444444444436</v>
+        <v>0.40277777777777773</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43963</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.19444444444444436</v>
+        <v>0.42361111111111099</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43963</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.6875</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -956,7 +1016,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -970,7 +1030,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -984,7 +1044,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -996,7 +1056,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1008,7 +1068,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1020,7 +1080,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1032,7 +1092,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1044,7 +1104,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1068,7 +1128,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1080,7 +1140,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1092,7 +1152,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1104,7 +1164,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1116,7 +1176,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1127,7 +1187,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1138,7 +1198,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1149,7 +1209,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1160,7 +1220,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1171,7 +1231,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1182,7 +1242,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1193,7 +1253,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1204,7 +1264,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.19444444444444436</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4ED07-4097-4092-8088-8E4EBDC4AA08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC4C93D-501F-419B-8A0D-5719E77762CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>Fællesgennemgang af projektplan</t>
+  </si>
+  <si>
+    <t>UC01 med EMIL</t>
+  </si>
+  <si>
+    <t>AD01 med Toke</t>
+  </si>
+  <si>
+    <t>Review af UC02 med Emil</t>
+  </si>
+  <si>
+    <t>review af AD02</t>
+  </si>
+  <si>
+    <t>DOM01 med MIK</t>
+  </si>
+  <si>
+    <t>Review af DOM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause </t>
   </si>
 </sst>
 </file>
@@ -766,7 +787,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,96 +1027,167 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.50694444444444442</v>
+        <v>0.52777777777777768</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.50694444444444442</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.4375</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.50694444444444442</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.4375</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.50694444444444442</v>
+        <v>0.59027777777777768</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.50694444444444442</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.5</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D17" s="17">
         <v>0.50694444444444442</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
+      <c r="E17" s="17">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="15"/>
       <c r="F18" s="21"/>
       <c r="G18" s="5">
@@ -1104,10 +1196,10 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
       <c r="F19" s="21"/>
       <c r="G19" s="5">
@@ -1116,10 +1208,10 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="15"/>
       <c r="F20" s="21"/>
       <c r="G20" s="5">
@@ -1128,10 +1220,10 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
       <c r="F21" s="21"/>
       <c r="G21" s="5">
@@ -1140,10 +1232,10 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="15"/>
       <c r="F22" s="21"/>
       <c r="G22" s="5">
@@ -1152,10 +1244,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="15"/>
       <c r="F23" s="21"/>
       <c r="G23" s="5">
@@ -1164,10 +1256,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="15"/>
       <c r="F24" s="21"/>
       <c r="G24" s="5">
@@ -1176,10 +1268,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="15"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -1187,10 +1279,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1198,10 +1290,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C27" s="15"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1209,10 +1301,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C28" s="15"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1220,10 +1312,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C29" s="15"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1231,10 +1323,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1242,10 +1334,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="15"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1253,10 +1345,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="15"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1264,7 +1356,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.50694444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC4C93D-501F-419B-8A0D-5719E77762CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14DB86-0A1C-4B6E-B00C-D5717865DB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t xml:space="preserve">Pause </t>
+  </si>
+  <si>
+    <t>SSD02</t>
+  </si>
+  <si>
+    <t>småting</t>
+  </si>
+  <si>
+    <t>Hjælp af Anders</t>
   </si>
 </sst>
 </file>
@@ -786,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,39 +1197,72 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.625</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="17">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
       <c r="F19" s="21"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43964</v>
+      </c>
+      <c r="D20" s="17">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
+      <c r="E20" s="17">
+        <v>0.73611111111111116</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1232,7 +1274,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1244,7 +1286,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1256,7 +1298,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1268,7 +1310,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1279,7 +1321,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1290,7 +1332,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1301,7 +1343,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1312,7 +1354,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1323,7 +1365,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1334,7 +1376,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1345,7 +1387,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1356,7 +1398,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.66666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14DB86-0A1C-4B6E-B00C-D5717865DB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7DC1CA-2B80-4A78-8C9B-921320091B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Hjælp af Anders</t>
+  </si>
+  <si>
+    <t>rettelse af UCD01 efter samtale med Ander</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,15 +1269,26 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1286,7 +1300,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1298,7 +1312,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1310,7 +1324,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1321,7 +1335,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1332,7 +1346,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1343,7 +1357,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1354,7 +1368,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1365,7 +1379,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1376,7 +1390,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1387,7 +1401,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1398,7 +1412,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7DC1CA-2B80-4A78-8C9B-921320091B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB146A-6236-4902-B230-C4DFFBC85C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>rettelse af UCD01 efter samtale med Ander</t>
+  </si>
+  <si>
+    <t>Begynd UC01</t>
+  </si>
+  <si>
+    <t>Snak med Anders</t>
   </si>
 </sst>
 </file>
@@ -798,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,39 +1298,72 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
+      <c r="A22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.92361111111111116</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
+      <c r="A23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0069444444444444</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
+      <c r="A24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1335,7 +1374,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1346,7 +1385,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1357,7 +1396,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1368,7 +1407,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1379,7 +1418,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1390,7 +1429,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1401,7 +1440,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1412,7 +1451,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.92361111111111116</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB146A-6236-4902-B230-C4DFFBC85C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD01F82-0699-449C-AEA7-B542EA944E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Snak med Anders</t>
+  </si>
+  <si>
+    <t>UC01 færdig</t>
   </si>
 </sst>
 </file>
@@ -804,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,47 +1370,91 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.0486111111111112</v>
+        <v>1.0902777777777779</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="15"/>
+      <c r="A26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.0486111111111112</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
+      <c r="A27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.0486111111111112</v>
+        <v>1.1527777777777779</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="15"/>
+      <c r="A28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43965</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.0486111111111112</v>
+        <v>1.1840277777777779</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1418,7 +1465,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.0486111111111112</v>
+        <v>1.1840277777777779</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1429,7 +1476,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.0486111111111112</v>
+        <v>1.1840277777777779</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1440,7 +1487,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.0486111111111112</v>
+        <v>1.1840277777777779</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1451,7 +1498,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.0486111111111112</v>
+        <v>1.1840277777777779</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM03 TIdsregistrering for Rasmus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD01F82-0699-449C-AEA7-B542EA944E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5CB2BF-8DE8-4C8A-8457-678575D491FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,15 +1446,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E28" s="17">
-        <v>0.67708333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.1840277777777779</v>
+        <v>1.1944444444444446</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.1840277777777779</v>
+        <v>1.1944444444444446</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.1840277777777779</v>
+        <v>1.1944444444444446</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.1840277777777779</v>
+        <v>1.1944444444444446</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.1840277777777779</v>
+        <v>1.1944444444444446</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
